--- a/data/trans_orig/Q03B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_R-Habitat-trans_orig.xlsx
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7385635301775131</v>
+        <v>0.7385635301775132</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>1.498889442685324</v>
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6523735903384106</v>
+        <v>0.6517448528921185</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.382255219020326</v>
+        <v>1.38841544960171</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.560582082284448</v>
+        <v>1.565543180577168</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.164358995470439</v>
+        <v>3.157885460962699</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.674313154553097</v>
+        <v>3.68668128091987</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.542721825695011</v>
+        <v>3.546187044340421</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.925622302108184</v>
+        <v>1.923030151314105</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.565652558402382</v>
+        <v>2.568174430262063</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.599643975551603</v>
+        <v>2.59718980762731</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8407348136057425</v>
+        <v>0.8457050250578912</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.633280285040116</v>
+        <v>1.643411373562127</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.809392405506882</v>
+        <v>1.822537773775533</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.483377859359543</v>
+        <v>3.508302730694692</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.029547561454863</v>
+        <v>4.041581142726784</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.840778193232043</v>
+        <v>3.862332998392426</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.163967904465504</v>
+        <v>2.170271937839701</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.809245427532566</v>
+        <v>2.813279091102243</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.84037631609004</v>
+        <v>2.822065822118428</v>
       </c>
     </row>
     <row r="7">
@@ -754,7 +754,7 @@
         <v>1.741833847722014</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.618350359427047</v>
+        <v>3.618350359427046</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>3.703361868930505</v>
@@ -766,7 +766,7 @@
         <v>2.366007225425461</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>2.564848088878925</v>
+        <v>2.564848088878924</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>2.676315903875305</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.016410630898499</v>
+        <v>1.019553286665405</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.30879245948563</v>
+        <v>1.306502761245503</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.652449781412537</v>
+        <v>1.657586650974004</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.468278837064777</v>
+        <v>3.468603915283877</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.576627301875128</v>
+        <v>3.560745024778651</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.441560491281314</v>
+        <v>3.438726507445314</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.250449502197512</v>
+        <v>2.251889642125271</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.461734394799387</v>
+        <v>2.474264082336781</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.584997371114194</v>
+        <v>2.588581517484913</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.228270114784597</v>
+        <v>1.216487422838782</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.503140310544939</v>
+        <v>1.510873840787012</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.85543036526684</v>
+        <v>1.854972482368454</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.780784388401497</v>
+        <v>3.784378605134229</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.865649990360958</v>
+        <v>3.875653621926065</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.706429049405662</v>
+        <v>3.701002818087986</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.485425539581351</v>
+        <v>2.473596607519993</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.666700821020866</v>
+        <v>2.672122943103686</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.774434328644428</v>
+        <v>2.775334347129721</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>2.42278234301625</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.47867251620881</v>
+        <v>2.478672516208811</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.505559683866075</v>
+        <v>1.508864840560953</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.285136960784601</v>
+        <v>1.276684428645273</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.332302301008485</v>
+        <v>1.31729840130075</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.835075922434768</v>
+        <v>3.848278689084589</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.265950279993355</v>
+        <v>3.277726246931143</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.268247929754156</v>
+        <v>3.277711726948933</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.727091058544593</v>
+        <v>2.724254884186999</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.319482367440147</v>
+        <v>2.315880132572842</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.382745318617503</v>
+        <v>2.375450541012034</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.846167072344634</v>
+        <v>1.858106622119218</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.503105521863718</v>
+        <v>1.496487471720479</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.525448285977262</v>
+        <v>1.523691994503785</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.205039785636069</v>
+        <v>4.218185615031407</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.572119108060163</v>
+        <v>3.576577890172598</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.570843859101255</v>
+        <v>3.573006136494962</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.996137935589592</v>
+        <v>3.017526640786937</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.535502642535211</v>
+        <v>2.529228108753167</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.593414329824201</v>
+        <v>2.593208897784387</v>
       </c>
     </row>
     <row r="13">
@@ -972,7 +972,7 @@
         <v>1.839903874019521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.314048110736066</v>
+        <v>3.314048110736065</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>3.156098981587701</v>
@@ -984,7 +984,7 @@
         <v>2.456655080308185</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>2.386955412864321</v>
+        <v>2.38695541286432</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>2.574639977822266</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.382716790135728</v>
+        <v>1.384141019165467</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.436407911213316</v>
+        <v>1.438476890318554</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.755481353081425</v>
+        <v>1.758547767026257</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.151852522702328</v>
+        <v>3.166871760342493</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.037377282073453</v>
+        <v>3.032239260066115</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.100554139673682</v>
+        <v>3.106846716443963</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.352432488807785</v>
+        <v>2.348867829532753</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.306644421475884</v>
+        <v>2.309602749315307</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.494503948954247</v>
+        <v>2.497109713990712</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.63541059346904</v>
+        <v>1.659952014771036</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.626722634569941</v>
+        <v>1.632525515267193</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.93633169352471</v>
+        <v>1.931440009752812</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.465870029930126</v>
+        <v>3.470652716114762</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.266551224823556</v>
+        <v>3.285538512452874</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.35295101257978</v>
+        <v>3.349249354711413</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.568862358312479</v>
+        <v>2.575998856158803</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.477005520391424</v>
+        <v>2.482453832662821</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.658396842875299</v>
+        <v>2.667208231293869</v>
       </c>
     </row>
     <row r="16">
@@ -1090,7 +1090,7 @@
         <v>3.461689200294664</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>2.4278450180709</v>
+        <v>2.427845018070899</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2.505599931205924</v>
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.199123170181036</v>
+        <v>1.207624784339747</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.400380913152676</v>
+        <v>1.401123957189723</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.641650575526643</v>
+        <v>1.641744753514489</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.46977274063312</v>
+        <v>3.469855463011387</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.43090131551781</v>
+        <v>3.439269525540559</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.395370647126696</v>
+        <v>3.392432882202285</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.370239869253242</v>
+        <v>2.369076772093632</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.448420958199571</v>
+        <v>2.454869157060852</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.562393219938643</v>
+        <v>2.563820165373758</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.322935070874959</v>
+        <v>1.33181556404537</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.510404232452937</v>
+        <v>1.509927494084265</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.741212501015313</v>
+        <v>1.74637382692213</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.639112873449867</v>
+        <v>3.629313610386968</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.583298640161479</v>
+        <v>3.587418353336731</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.531441486847103</v>
+        <v>3.529313606312455</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.489590312510248</v>
+        <v>2.49266156807819</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.556818740945852</v>
+        <v>2.560964884427485</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.660500885554473</v>
+        <v>2.661245196745421</v>
       </c>
     </row>
     <row r="19">
